--- a/学年日历1.xlsx
+++ b/学年日历1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\文件夹\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>星期一</t>
   </si>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>Effective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,26 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Problems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,7 +239,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C/C++</t>
+    <t>python单元测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++
+QT温度计模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络编程
+socket
+epoll 模型
+异常处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络
+网络层，协议结构，层与层直接的结构及关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库
+SQL
+无结构数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统
+熟悉linux接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,8 +981,11 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -962,17 +993,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1463,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,11 +1510,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1591,16 +1619,24 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
@@ -1633,8 +1669,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
+      <c r="A8" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1676,7 +1712,7 @@
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1718,7 +1754,7 @@
     </row>
     <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1748,11 +1784,11 @@
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
@@ -1760,12 +1796,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"M月")</f>
         <v>11月</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
@@ -1833,7 +1869,7 @@
     </row>
     <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1875,7 +1911,7 @@
     </row>
     <row r="20" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1917,7 +1953,7 @@
     </row>
     <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1959,7 +1995,7 @@
     </row>
     <row r="24" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2000,8 +2036,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
+      <c r="A26" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2020,22 +2056,22 @@
         <f ca="1"/>
         <v>43802</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
@@ -2043,12 +2079,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"m月")</f>
         <v>12月</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
@@ -2154,8 +2190,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2196,8 +2232,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>14</v>
+      <c r="A36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2238,8 +2274,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>15</v>
+      <c r="A38" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2281,7 +2317,7 @@
     </row>
     <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2300,25 +2336,25 @@
         <f ca="1"/>
         <v>43830</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="2"/>
@@ -2326,12 +2362,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"m月")</f>
         <v>1月</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="2"/>
@@ -2437,6 +2473,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2571,22 +2610,22 @@
         <f ca="1"/>
         <v>43865</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="2"/>
@@ -2594,12 +2633,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"m月")</f>
         <v>2月</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2"/>
@@ -2839,22 +2878,22 @@
         <f ca="1"/>
         <v>43893</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="2"/>
@@ -2862,12 +2901,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="16" t="str">
+      <c r="C71" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"m月")</f>
         <v>3月</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -3107,22 +3146,22 @@
         <f ca="1"/>
         <v>43921</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="2"/>
@@ -3130,12 +3169,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="16" t="str">
+      <c r="C85" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"m月")</f>
         <v>4月</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="2"/>
@@ -3375,22 +3414,22 @@
         <f ca="1"/>
         <v>43956</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="2"/>
@@ -3398,12 +3437,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="16" t="str">
+      <c r="C99" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"m月")</f>
         <v>5月</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="2"/>
@@ -3643,22 +3682,22 @@
         <f ca="1"/>
         <v>43984</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="2"/>
@@ -3666,12 +3705,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="16" t="str">
+      <c r="C113" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"m月")</f>
         <v>6月</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="2"/>
@@ -3911,22 +3950,22 @@
         <f ca="1"/>
         <v>44019</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2"/>
@@ -3934,12 +3973,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="16" t="str">
+      <c r="C127" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"m月")</f>
         <v>7月</v>
       </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="2"/>
@@ -4179,34 +4218,34 @@
         <f ca="1"/>
         <v>44047</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="16" t="str">
+      <c r="C141" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"m月")</f>
         <v>8月</v>
       </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2"/>
@@ -4445,34 +4484,34 @@
         <f ca="1"/>
         <v>44075</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="16" t="str">
+      <c r="C155" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"m月")</f>
         <v>9月</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="2"/>
@@ -4711,45 +4750,25 @@
         <f ca="1"/>
         <v>44110</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4766,6 +4785,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4902,11 +4941,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -5011,7 +5050,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -5159,11 +5198,11 @@
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
@@ -5171,12 +5210,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"M月")</f>
         <v>11月</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
@@ -5416,22 +5455,22 @@
         <f ca="1"/>
         <v>43802</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
@@ -5439,12 +5478,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"m月")</f>
         <v>12月</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
@@ -5684,22 +5723,22 @@
         <f ca="1"/>
         <v>43830</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="2"/>
@@ -5707,12 +5746,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"m月")</f>
         <v>1月</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="2"/>
@@ -5952,22 +5991,22 @@
         <f ca="1"/>
         <v>43865</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="2"/>
@@ -5975,12 +6014,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"m月")</f>
         <v>2月</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2"/>
@@ -6220,22 +6259,22 @@
         <f ca="1"/>
         <v>43893</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="2"/>
@@ -6243,12 +6282,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="16" t="str">
+      <c r="C71" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"m月")</f>
         <v>3月</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -6488,22 +6527,22 @@
         <f ca="1"/>
         <v>43921</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="2"/>
@@ -6511,12 +6550,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="16" t="str">
+      <c r="C85" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"m月")</f>
         <v>4月</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="2"/>
@@ -6756,22 +6795,22 @@
         <f ca="1"/>
         <v>43956</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="2"/>
@@ -6779,12 +6818,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="16" t="str">
+      <c r="C99" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"m月")</f>
         <v>5月</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="2"/>
@@ -7024,22 +7063,22 @@
         <f ca="1"/>
         <v>43984</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="2"/>
@@ -7047,12 +7086,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="16" t="str">
+      <c r="C113" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"m月")</f>
         <v>6月</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="2"/>
@@ -7292,22 +7331,22 @@
         <f ca="1"/>
         <v>44019</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2"/>
@@ -7315,12 +7354,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="16" t="str">
+      <c r="C127" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"m月")</f>
         <v>7月</v>
       </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="2"/>
@@ -7560,34 +7599,34 @@
         <f ca="1"/>
         <v>44047</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="16" t="str">
+      <c r="C141" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"m月")</f>
         <v>8月</v>
       </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2"/>
@@ -7826,34 +7865,34 @@
         <f ca="1"/>
         <v>44075</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="16" t="str">
+      <c r="C155" s="14" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"m月")</f>
         <v>9月</v>
       </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="2"/>
@@ -8092,30 +8131,49 @@
         <f ca="1"/>
         <v>44110</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="D111:H111"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="D125:H125"/>
@@ -8123,30 +8181,11 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/学年日历1.xlsx
+++ b/学年日历1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="16110" tabRatio="788"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="16110" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日历" sheetId="14" r:id="rId1"/>
@@ -984,8 +984,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -993,11 +993,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1491,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,11 +1510,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1773,22 +1773,22 @@
         <f ca="1"/>
         <v>43774</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
@@ -1796,12 +1796,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"M月")</f>
         <v>11月</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
@@ -2067,11 +2067,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
@@ -2079,12 +2079,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"m月")</f>
         <v>12月</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="2"/>
@@ -2362,12 +2362,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="14" t="str">
+      <c r="C43" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"m月")</f>
         <v>1月</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="2"/>
@@ -2621,11 +2621,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="2"/>
@@ -2633,12 +2633,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="str">
+      <c r="C57" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"m月")</f>
         <v>2月</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2"/>
@@ -2889,11 +2889,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="2"/>
@@ -2901,12 +2901,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="str">
+      <c r="C71" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"m月")</f>
         <v>3月</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -3157,11 +3157,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="2"/>
@@ -3169,12 +3169,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="14" t="str">
+      <c r="C85" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"m月")</f>
         <v>4月</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="2"/>
@@ -3425,11 +3425,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="2"/>
@@ -3437,12 +3437,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="14" t="str">
+      <c r="C99" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"m月")</f>
         <v>5月</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="2"/>
@@ -3693,11 +3693,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="2"/>
@@ -3705,12 +3705,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="14" t="str">
+      <c r="C113" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"m月")</f>
         <v>6月</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="2"/>
@@ -3961,11 +3961,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2"/>
@@ -3973,12 +3973,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="14" t="str">
+      <c r="C127" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"m月")</f>
         <v>7月</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="2"/>
@@ -4229,23 +4229,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="14" t="str">
+      <c r="C141" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"m月")</f>
         <v>8月</v>
       </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2"/>
@@ -4495,23 +4495,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="14" t="str">
+      <c r="C155" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"m月")</f>
         <v>9月</v>
       </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="2"/>
@@ -4761,14 +4761,34 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4785,26 +4805,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4920,8 +4920,8 @@
   </sheetPr>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4941,11 +4941,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -5056,8 +5056,12 @@
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="9"/>
     </row>
@@ -5187,22 +5191,22 @@
         <f ca="1"/>
         <v>43774</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
@@ -5210,12 +5214,12 @@
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"M月")</f>
         <v>11月</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2"/>
@@ -5466,11 +5470,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
@@ -5478,12 +5482,12 @@
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"m月")</f>
         <v>12月</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
@@ -5734,11 +5738,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="2"/>
@@ -5746,12 +5750,12 @@
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C43" s="14" t="str">
+      <c r="C43" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"m月")</f>
         <v>1月</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="2"/>
@@ -6002,11 +6006,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="2"/>
@@ -6014,12 +6018,12 @@
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="str">
+      <c r="C57" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"m月")</f>
         <v>2月</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2"/>
@@ -6270,11 +6274,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="2"/>
@@ -6282,12 +6286,12 @@
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="str">
+      <c r="C71" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"m月")</f>
         <v>3月</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -6538,11 +6542,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="2"/>
@@ -6550,12 +6554,12 @@
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C85" s="14" t="str">
+      <c r="C85" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"m月")</f>
         <v>4月</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="2"/>
@@ -6806,11 +6810,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="2"/>
@@ -6818,12 +6822,12 @@
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C99" s="14" t="str">
+      <c r="C99" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"m月")</f>
         <v>5月</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="2"/>
@@ -7074,11 +7078,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="2"/>
@@ -7086,12 +7090,12 @@
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C113" s="14" t="str">
+      <c r="C113" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"m月")</f>
         <v>6月</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="2"/>
@@ -7342,11 +7346,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2"/>
@@ -7354,12 +7358,12 @@
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C127" s="14" t="str">
+      <c r="C127" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"m月")</f>
         <v>7月</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="2"/>
@@ -7610,23 +7614,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C141" s="14" t="str">
+      <c r="C141" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"m月")</f>
         <v>8月</v>
       </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2"/>
@@ -7876,23 +7880,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C155" s="14" t="str">
+      <c r="C155" s="17" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"m月")</f>
         <v>9月</v>
       </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="2"/>
@@ -8142,14 +8146,38 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="D111:H111"/>
     <mergeCell ref="D56:H56"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D13:H13"/>
@@ -8162,30 +8190,6 @@
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
